--- a/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_PhucNguyen.xlsx
+++ b/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_PhucNguyen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Week</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Edit constraints</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>47h</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +167,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -552,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,6 +773,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,7 +1082,7 @@
   <dimension ref="A2:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1218,7 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="30"/>
-      <c r="K8"/>
+      <c r="K8" s="67"/>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,7 +1234,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="59"/>
       <c r="B10" s="39">
         <v>41047</v>
@@ -1229,7 +1255,12 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="43"/>
-      <c r="K10"/>
+      <c r="J10" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>27</v>
+      </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
